--- a/data/case1/20/P2_14.xlsx
+++ b/data/case1/20/P2_14.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.076070829024388331</v>
+        <v>0.11449925658460813</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0099999994947950199</v>
+        <v>-0.049877722579360295</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0089999995006149192</v>
+        <v>-0.0089999995842546809</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.28399075447505595</v>
+        <v>0.28399287994709965</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0059999995161765796</v>
+        <v>-0.0059999995973445408</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0059999994981296823</v>
+        <v>-0.0059999995826416352</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.019999999404031854</v>
+        <v>-0.019999999504742405</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.019999999399913371</v>
+        <v>-0.019999999500245558</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0059999994884725183</v>
+        <v>-0.0059999995715473986</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.031812819076812104</v>
+        <v>-0.0059999995672725959</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0044999994951950839</v>
+        <v>0.017669435316552295</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0059999994855273187</v>
+        <v>-0.0059999995651147664</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0059999994879413876</v>
+        <v>-0.0059999995577344478</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999999449584742</v>
+        <v>-0.01199999952285502</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0059999994913022547</v>
+        <v>-0.005999999553867319</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0059999994944561763</v>
+        <v>-0.0059999995523045691</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.055467996668814301</v>
+        <v>-0.0059999995502515446</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0089999994814098372</v>
+        <v>-0.0089999995333851501</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0089999995007414846</v>
+        <v>-0.0089999995855469805</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0089999994915537229</v>
+        <v>-0.0089999995818672573</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.034090395055499378</v>
+        <v>-0.0089999995812872768</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0089999994892147051</v>
+        <v>-0.0089999995808653921</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0089999994965008767</v>
+        <v>-0.037435963308036335</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.041999999270735167</v>
+        <v>-0.041999999393167009</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.041999999266923105</v>
+        <v>-0.041999999389831011</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0059999994961685843</v>
+        <v>-0.050802604457160783</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999994936519307</v>
+        <v>-0.0059999995808297513</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0059999994825545855</v>
+        <v>-0.0059999995786261806</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.011999999435364117</v>
+        <v>-0.011999999544825002</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.019999999378734312</v>
+        <v>-0.019999999501198573</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014999999406446918</v>
+        <v>0.045155041610385638</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.020999999365868938</v>
+        <v>-0.020999999496759791</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0059999994647332855</v>
+        <v>-0.0059999995782975546</v>
       </c>
     </row>
   </sheetData>
